--- a/biology/Microbiologie/Filtration_sur_membrane/Filtration_sur_membrane.xlsx
+++ b/biology/Microbiologie/Filtration_sur_membrane/Filtration_sur_membrane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une filtration sur membrane est un procédé de séparation physique se déroulant en phase liquide. Le but est de purifier, fractionner ou concentrer des espèces dissoutes ou en suspension dans un solvant au travers d’une membrane. 
 </t>
@@ -511,7 +523,9 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La technique de séparation membranaire est connue depuis un certain temps mais son développement reste récent. Depuis les années 70 on retrouve ces techniques principalement dans l’industrie laitière, des boissons, des ovo-produits, des jus de fruits ou du traitement des eaux. 
 Ces procédés consomment relativement peu d’énergie et sont sélectifs.
@@ -551,7 +565,9 @@
           <t>Types de filtration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe deux types de filtration : la frontale (la plus connue) et la tangentielle. La tangentielle permet un colmatage moins rapide, mais elle est généralement réservée à la filtration de très petites particules.
 Trois types de structures existent pour les membranes : 
@@ -585,7 +601,9 @@
           <t>Procédés membranaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon le gradient de pression et la taille des pores nous avons :
 La microfiltration : elle consiste à éliminer les particules ayant une dimension comprise entre 0,1 et 10 µm lors du passage tangentiel (et non perpendiculaire) du fluide à traiter à travers la membrane, et ce, grâce à une différence de pression de part et d'autre de la membrane.
@@ -630,13 +648,57 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matériaux
-Les matériaux utilisés sont de nature organique ou minérale :
+          <t>Matériaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les matériaux utilisés sont de nature organique ou minérale :
 Organiques : Membranes peu chères mais faiblement résistantes (elles représentent aujourd’hui 90 % des membranes d’ultrafiltration et de microfiltration)
 Inorganiques (minérales): Très résistantes mais chères.
 Les matériaux doivent avoir une résistance chimique, thermique et mécanique en accord avec le procédé et le fluide utilisé. La résistance mécanique dépend du matériau mais aussi de la structure de la membrane et de sa géométrie. 
-Matériaux organiques
-Ce sont des membranes polymères réticulés ou non (plus de 80 % du marché). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Matériaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Matériaux organiques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ce sont des membranes polymères réticulés ou non (plus de 80 % du marché). 
 Leurs principaux avantages sont :
 Une mise en œuvre aisée
 Une disponibilité dans toutes les tailles de pores
@@ -647,74 +709,493 @@
 Les matériaux sulfonés apparus vers 1970
 Les matériaux polyamides et polyimides
 Les matériaux acryliques employés seuls ou sous forme de copolymères ou d'alliages de polymères
-Les matériaux fluorés (plus résistants chimiquement)
-Matériaux minéraux
-Pour les membranes inorganiques (minérales), le support macroporeux qui assure la résistance mécanique est en général composé de carbone, alumine, métal, silico-aluminate ou carbure de silicium, et la couche active est faite à partir d'oxydes métalliques, de verre ou de carbone (membranes composites). 
+Les matériaux fluorés (plus résistants chimiquement)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Matériaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Matériaux minéraux</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les membranes inorganiques (minérales), le support macroporeux qui assure la résistance mécanique est en général composé de carbone, alumine, métal, silico-aluminate ou carbure de silicium, et la couche active est faite à partir d'oxydes métalliques, de verre ou de carbone (membranes composites). 
 Les membranes céramiques constituent la majorité des membranes minérales.
-Membrane poreuse ou dense
-Les membranes poreuses s’apparentent aux filtres courants, les pores étant cependant plus petits. La séparation des molécules en solution se fait donc en fonction de leur taille et de distribution de taille des pores si la membrane est asymétrique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Membrane poreuse ou dense</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membranes poreuses s’apparentent aux filtres courants, les pores étant cependant plus petits. La séparation des molécules en solution se fait donc en fonction de leur taille et de distribution de taille des pores si la membrane est asymétrique. 
 Les membranes denses sont constituées d’un film qui transportera le soluté par diffusion grâce à une différence de pression, de concentration ou de potentiel électrique. La diffusion des solutés dépendra donc de leur diffusivité et de leur solubilité à travers la membrane (on pourra donc séparer des solutés de même taille si ces paramètres diffèrent entre eux).
-Structure
-Membranes symétriques
-Elles sont constituées d’un seul matériau, la taille des pores étant homogène. 
-Membranes asymétriques (ou anisotropes)
-Elles sont constituées d’une couche très fine (la peau) posée sur une sous couche poreuse plus épaisse. La séparation sera assurée par la couche plus fine, plus sélective. Plus les membranes sont fines, plus le flux est élevé, ce qui est recherché en industrie pour des raisons économiques. Elles doivent aussi rester assez résistantes, ce qui conduit généralement à des membranes épaisses d’au moins 20µm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Membranes symétriques</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont constituées d’un seul matériau, la taille des pores étant homogène. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Membranes asymétriques (ou anisotropes)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont constituées d’une couche très fine (la peau) posée sur une sous couche poreuse plus épaisse. La séparation sera assurée par la couche plus fine, plus sélective. Plus les membranes sont fines, plus le flux est élevé, ce qui est recherché en industrie pour des raisons économiques. Elles doivent aussi rester assez résistantes, ce qui conduit généralement à des membranes épaisses d’au moins 20µm.
 La peau peut être dense ou poreuse selon l’application voulue. 
-Membranes composites
-De type organique et anisotrope, les deux couches sont constituées de matériaux différents. 
-Géométrie des membranes et des modules
-La géométrie des membranes est souvent assimilée à la géométrie des modules. Les principaux types de modules membranaires sont présentés ci-dessous.
-Membranes planes
-La couche sélective étant déposée sur un support, la membrane n’a pas de résistance mécanique lorsque la pression est appliquée en sens inverse. Le rétrolavage n’est donc pas possible et la membrane finit par se détériorer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Membranes composites</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De type organique et anisotrope, les deux couches sont constituées de matériaux différents. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Géométrie des membranes et des modules</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La géométrie des membranes est souvent assimilée à la géométrie des modules. Les principaux types de modules membranaires sont présentés ci-dessous.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Géométrie des membranes et des modules</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Membranes planes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couche sélective étant déposée sur un support, la membrane n’a pas de résistance mécanique lorsque la pression est appliquée en sens inverse. Le rétrolavage n’est donc pas possible et la membrane finit par se détériorer.
 Elles sont rigides et ne peuvent être enroulées, elles ne sont donc utilisables que dans des dispositifs de type filtre presse (membranes en feuille montées de part et d’autre de cadres rigides, empilés)
-Membranes spiralées
-Membranes composées d’un matériau organique. Elles sont très utilisées pour la nanofiltration. Les modules sont composés d’un tube sur lequel sont enroulés successivement une membrane, une grille fine, une autre membrane et une grille plus grossière. Les membranes doivent donc être suffisamment flexibles pour être enroulées. Le rétentat circule à travers la grille moins fine tandis que le filtrat va aller jusqu’à la grille plus fine où il passera dans le creux central du tube. 
-Membranes tubulaires
-Elles peuvent être de type monocanal ou multicanaux et sont souvent de nature minérale. Dans le cas de membranes tubulaires multicanaux, les tubes sont regroupés en parallèle dans un module. Le perméat est récupéré à l’extérieur des tubes, dans l’enveloppe du module. Ces systèmes sont moins sensibles au colmatage mais coûtent cher et peuvent être encombrants. 
-Membranes en fibres creuses
-Elles sont composées d’un ensemble de fibres creuses regroupées dans une enveloppe (formant le module). Elles sont uniquement de nature organique et ne possèdent pas de support textile (autosupportées). De même, elles ne sont souvent composées que d’un matériau, bien que des fibres creuses composites existent. La couche active (peau) et la sous couche poreuse sont intimement solidaires, ce qui permet de filtrer dans les deux sens. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Géométrie des membranes et des modules</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Membranes spiralées</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membranes composées d’un matériau organique. Elles sont très utilisées pour la nanofiltration. Les modules sont composés d’un tube sur lequel sont enroulés successivement une membrane, une grille fine, une autre membrane et une grille plus grossière. Les membranes doivent donc être suffisamment flexibles pour être enroulées. Le rétentat circule à travers la grille moins fine tandis que le filtrat va aller jusqu’à la grille plus fine où il passera dans le creux central du tube. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Géométrie des membranes et des modules</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Membranes tubulaires</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles peuvent être de type monocanal ou multicanaux et sont souvent de nature minérale. Dans le cas de membranes tubulaires multicanaux, les tubes sont regroupés en parallèle dans un module. Le perméat est récupéré à l’extérieur des tubes, dans l’enveloppe du module. Ces systèmes sont moins sensibles au colmatage mais coûtent cher et peuvent être encombrants. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Types de membrane</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Géométrie des membranes et des modules</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Membranes en fibres creuses</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont composées d’un ensemble de fibres creuses regroupées dans une enveloppe (formant le module). Elles sont uniquement de nature organique et ne possèdent pas de support textile (autosupportées). De même, elles ne sont souvent composées que d’un matériau, bien que des fibres creuses composites existent. La couche active (peau) et la sous couche poreuse sont intimement solidaires, ce qui permet de filtrer dans les deux sens. 
 Ce système est peu coûteux mais permet de filtrer des fluides peu visqueux présentant de faibles risques de colmatage. 
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Filtration_sur_membrane</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Réalisation d'une filtration sur membrane</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Matériel
-pompe à vide
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Matériel</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>pompe à vide
 fiole à vide
 bouchon perforé
 membrane (de type micropore) stérile
 pince à bords plats
 support métallique pour membrane
 conteneur sur membrane
-pipette de 25 mL stérile
-Montage
-Relier la pompe à vide au robinet
+pipette de 25 mL stérile</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Réalisation d'une filtration sur membrane</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Montage</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Relier la pompe à vide au robinet
 Assembler le bouchon et le support à filtre métallique
 Flamber le support
 Poser stérilement la membrane sur le support en la centrant bien, le quadrillage devant être visible, face à vous
@@ -722,31 +1203,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Filtration_sur_membrane</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Filtration_sur_membrane</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Devenir de la membrane</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant ce qui est recherché, vous devrez poser stérilement la membrane sur un milieu de culture gélosé comme VRBL pour la recherche des coliformes,  Baird Parker pour la recherche des staphylocoques. Il existe des boîtes de Petri adaptées au diamètre des membranes.
 </t>
